--- a/data/trans_orig/P47A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7683C907-8B80-46E8-8D4C-43DD58AC7502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90283032-FAEF-423B-A998-D28BE17C9EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13382048-ECE0-403C-A6AF-9F01533FBE05}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{960E9A3C-1672-4A80-8853-053AB742E435}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="786">
   <si>
     <t>Población según su autopercepción del peso respecto de su talla en 2007 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -80,2305 +80,2323 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>Algo mayor de lo normal</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>Bastante mayor de lo normal</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2012 (Tasa respuesta: 99,09%)</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2016 (Tasa respuesta: 98,87%)</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>Algo mayor de lo normal</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>Bastante mayor de lo normal</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2012 (Tasa respuesta: 99,09%)</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2016 (Tasa respuesta: 98,87%)</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>8,24%</t>
+    <t>8,19%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
   </si>
 </sst>
 </file>
@@ -2790,7 +2808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABF548D-5B09-4366-9136-93207A675EDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB64DB4-7552-4877-BF79-3862EB058122}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3294,7 +3312,7 @@
         <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>306</v>
@@ -3303,13 +3321,13 @@
         <v>306585</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3342,13 @@
         <v>50987</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>93</v>
@@ -3339,13 +3357,13 @@
         <v>95362</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>144</v>
@@ -3354,13 +3372,13 @@
         <v>146349</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,7 +3434,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3428,13 +3446,13 @@
         <v>43779</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -3443,13 +3461,13 @@
         <v>28310</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -3458,13 +3476,13 @@
         <v>72090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3497,13 @@
         <v>571319</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>473</v>
@@ -3494,13 +3512,13 @@
         <v>505228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>1004</v>
@@ -3509,13 +3527,13 @@
         <v>1076548</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3548,13 @@
         <v>275179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>287</v>
@@ -3545,13 +3563,13 @@
         <v>305630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>547</v>
@@ -3560,13 +3578,13 @@
         <v>580810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3599,13 @@
         <v>71522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -3596,13 +3614,13 @@
         <v>128285</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -3611,13 +3629,13 @@
         <v>199807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,7 +3691,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3685,13 +3703,13 @@
         <v>34530</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -3700,13 +3718,13 @@
         <v>24430</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -3715,10 +3733,10 @@
         <v>58960</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>133</v>
@@ -3808,7 +3826,7 @@
         <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="M21" s="7">
         <v>384</v>
@@ -3817,13 +3835,13 @@
         <v>385313</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3856,13 @@
         <v>36595</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -3853,13 +3871,13 @@
         <v>81270</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -3868,13 +3886,13 @@
         <v>117865</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3975,13 @@
         <v>35780</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>81</v>
@@ -3972,13 +3990,13 @@
         <v>81253</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4011,13 @@
         <v>619776</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>572</v>
@@ -4008,28 +4026,28 @@
         <v>596348</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>1219</v>
       </c>
       <c r="N25" s="7">
-        <v>1216124</v>
+        <v>1216125</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4062,13 @@
         <v>221397</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>287</v>
@@ -4059,22 +4077,22 @@
         <v>300503</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>527</v>
       </c>
       <c r="N26" s="7">
-        <v>521899</v>
+        <v>521900</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>185</v>
@@ -4095,13 +4113,13 @@
         <v>51263</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>100</v>
@@ -4110,13 +4128,13 @@
         <v>102766</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>156</v>
@@ -4125,13 +4143,13 @@
         <v>154029</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,7 +4191,7 @@
         <v>1983</v>
       </c>
       <c r="N28" s="7">
-        <v>1973305</v>
+        <v>1973306</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -4199,13 +4217,13 @@
         <v>141824</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>110</v>
@@ -4214,13 +4232,13 @@
         <v>114817</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>243</v>
@@ -4229,13 +4247,13 @@
         <v>256641</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4268,13 @@
         <v>2041932</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>1775</v>
@@ -4265,13 +4283,13 @@
         <v>1821092</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>3769</v>
@@ -4280,13 +4298,13 @@
         <v>3863024</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,28 +4319,28 @@
         <v>861404</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>981</v>
       </c>
       <c r="I31" s="7">
-        <v>1005381</v>
+        <v>1005380</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>1837</v>
@@ -4331,13 +4349,13 @@
         <v>1866785</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4370,13 @@
         <v>226074</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>423</v>
@@ -4367,13 +4385,13 @@
         <v>430044</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>648</v>
@@ -4382,13 +4400,13 @@
         <v>656118</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,7 +4433,7 @@
         <v>3289</v>
       </c>
       <c r="I33" s="7">
-        <v>3371334</v>
+        <v>3371333</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -4444,7 +4462,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +4483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63C94AA-DDA6-4174-8A10-4AF6FE7998FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFF8480-5F2D-4B26-B6F6-940868DA35DA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4482,7 +4500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4589,13 +4607,13 @@
         <v>5312</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4604,13 +4622,13 @@
         <v>4656</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4619,13 +4637,13 @@
         <v>9968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4658,13 @@
         <v>68934</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>46</v>
@@ -4655,13 +4673,13 @@
         <v>52743</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -4670,13 +4688,13 @@
         <v>121677</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,10 +4712,10 @@
         <v>73</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -4706,13 +4724,13 @@
         <v>33154</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7">
         <v>66</v>
@@ -4721,13 +4739,13 @@
         <v>65790</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4760,13 @@
         <v>8884</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4757,13 +4775,13 @@
         <v>13039</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4772,13 +4790,13 @@
         <v>21922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4864,13 @@
         <v>22472</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -4861,13 +4879,13 @@
         <v>23571</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -4876,13 +4894,13 @@
         <v>46043</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4915,13 @@
         <v>367641</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>307</v>
@@ -4912,13 +4930,13 @@
         <v>329494</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>650</v>
@@ -4927,13 +4945,13 @@
         <v>697135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4966,13 @@
         <v>151864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>171</v>
@@ -4963,13 +4981,13 @@
         <v>177563</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>313</v>
@@ -4978,13 +4996,13 @@
         <v>329427</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5017,13 @@
         <v>38502</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>194</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>47</v>
@@ -5014,13 +5032,13 @@
         <v>50327</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>85</v>
@@ -5029,13 +5047,13 @@
         <v>88829</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5109,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5103,13 +5121,13 @@
         <v>43740</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -5118,13 +5136,13 @@
         <v>35682</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -5133,13 +5151,13 @@
         <v>79422</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5172,13 @@
         <v>654677</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H15" s="7">
         <v>494</v>
@@ -5169,13 +5187,13 @@
         <v>539462</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M15" s="7">
         <v>1097</v>
@@ -5184,13 +5202,13 @@
         <v>1194140</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>310</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5223,13 @@
         <v>266710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>319</v>
@@ -5220,13 +5238,13 @@
         <v>347805</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>564</v>
@@ -5235,13 +5253,13 @@
         <v>614515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5274,13 @@
         <v>44771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>91</v>
@@ -5348,7 +5366,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5366,7 +5384,7 @@
         <v>329</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -5375,13 +5393,13 @@
         <v>29399</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -5390,13 +5408,13 @@
         <v>71730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5429,13 @@
         <v>439098</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H20" s="7">
         <v>320</v>
@@ -5426,13 +5444,13 @@
         <v>355148</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>722</v>
@@ -5441,13 +5459,13 @@
         <v>794246</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5480,13 @@
         <v>215062</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H21" s="7">
         <v>266</v>
@@ -5477,10 +5495,10 @@
         <v>293502</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>349</v>
+        <v>112</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>350</v>
@@ -5546,10 +5564,10 @@
         <v>360</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5635,13 @@
         <v>51390</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -5632,13 +5650,13 @@
         <v>42205</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M24" s="7">
         <v>90</v>
@@ -5647,13 +5665,13 @@
         <v>93595</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5686,13 @@
         <v>573221</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H25" s="7">
         <v>546</v>
@@ -5683,13 +5701,13 @@
         <v>571346</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M25" s="7">
         <v>1102</v>
@@ -5698,13 +5716,13 @@
         <v>1144567</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5737,13 @@
         <v>252485</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H26" s="7">
         <v>303</v>
@@ -5734,13 +5752,13 @@
         <v>318907</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M26" s="7">
         <v>547</v>
@@ -5749,13 +5767,13 @@
         <v>571392</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5788,13 @@
         <v>62580</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H27" s="7">
         <v>104</v>
@@ -5785,13 +5803,13 @@
         <v>110261</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M27" s="7">
         <v>157</v>
@@ -5800,13 +5818,13 @@
         <v>172841</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5892,13 @@
         <v>165244</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>124</v>
@@ -5889,13 +5907,13 @@
         <v>135513</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>60</v>
+        <v>398</v>
       </c>
       <c r="M29" s="7">
         <v>282</v>
@@ -5904,13 +5922,13 @@
         <v>300757</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5943,13 @@
         <v>2103572</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H30" s="7">
         <v>1713</v>
@@ -5940,13 +5958,13 @@
         <v>1848193</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M30" s="7">
         <v>3689</v>
@@ -5955,10 +5973,10 @@
         <v>3951765</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>407</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>408</v>
@@ -5976,13 +5994,13 @@
         <v>918756</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H31" s="7">
         <v>1089</v>
@@ -5991,13 +6009,13 @@
         <v>1170932</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>413</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>414</v>
+        <v>112</v>
       </c>
       <c r="M31" s="7">
         <v>1952</v>
@@ -6006,13 +6024,13 @@
         <v>2089688</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6045,13 @@
         <v>208869</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>419</v>
+        <v>272</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H32" s="7">
         <v>339</v>
@@ -6042,13 +6060,13 @@
         <v>366476</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M32" s="7">
         <v>525</v>
@@ -6057,13 +6075,13 @@
         <v>575345</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,7 +6137,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6140,7 +6158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6720D544-A94B-4AA6-B0FE-F890E9D49947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01204D91-066A-4E0A-A361-4BCA77098BB7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6157,7 +6175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6264,13 +6282,13 @@
         <v>4128</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -6279,13 +6297,13 @@
         <v>6951</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6294,13 +6312,13 @@
         <v>11079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6333,13 @@
         <v>72995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -6330,13 +6348,13 @@
         <v>55805</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -6345,13 +6363,13 @@
         <v>128800</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6384,13 @@
         <v>29281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H6" s="7">
         <v>39</v>
@@ -6381,13 +6399,13 @@
         <v>38443</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>449</v>
+        <v>112</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M6" s="7">
         <v>66</v>
@@ -6396,13 +6414,13 @@
         <v>67724</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6435,13 @@
         <v>10142</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>451</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -6432,13 +6450,13 @@
         <v>8980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -6447,13 +6465,13 @@
         <v>19122</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6539,13 @@
         <v>16537</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -6536,13 +6554,13 @@
         <v>18682</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>461</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -6551,13 +6569,13 @@
         <v>35219</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>466</v>
+        <v>297</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6590,13 @@
         <v>368383</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H10" s="7">
         <v>342</v>
@@ -6587,13 +6605,13 @@
         <v>346199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>469</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M10" s="7">
         <v>702</v>
@@ -6602,13 +6620,13 @@
         <v>714582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6641,13 @@
         <v>130976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H11" s="7">
         <v>135</v>
@@ -6638,13 +6656,13 @@
         <v>136988</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M11" s="7">
         <v>258</v>
@@ -6653,13 +6671,13 @@
         <v>267964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,13 +6692,13 @@
         <v>34469</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>90</v>
+        <v>483</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -6689,13 +6707,13 @@
         <v>47829</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M12" s="7">
         <v>77</v>
@@ -6704,13 +6722,13 @@
         <v>82297</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>490</v>
+        <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>491</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,7 +6784,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6778,13 +6796,13 @@
         <v>42417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -6793,13 +6811,13 @@
         <v>38507</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -6808,13 +6826,13 @@
         <v>80925</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,13 +6847,13 @@
         <v>655778</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H15" s="7">
         <v>570</v>
@@ -6844,13 +6862,13 @@
         <v>603360</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M15" s="7">
         <v>1182</v>
@@ -6859,13 +6877,13 @@
         <v>1259138</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,13 +6898,13 @@
         <v>250746</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -6895,13 +6913,13 @@
         <v>306272</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>514</v>
@@ -6910,13 +6928,13 @@
         <v>557018</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,13 +6949,13 @@
         <v>59790</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -6946,13 +6964,13 @@
         <v>82952</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>522</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -6961,13 +6979,13 @@
         <v>142742</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>523</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,7 +7041,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7035,13 +7053,13 @@
         <v>24820</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -7050,13 +7068,13 @@
         <v>27564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>527</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -7065,13 +7083,13 @@
         <v>52384</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7104,13 @@
         <v>459120</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H20" s="7">
         <v>425</v>
@@ -7101,13 +7119,13 @@
         <v>450004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>533</v>
       </c>
       <c r="M20" s="7">
         <v>846</v>
@@ -7116,13 +7134,13 @@
         <v>909124</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7155,13 @@
         <v>223043</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H21" s="7">
         <v>232</v>
@@ -7152,10 +7170,10 @@
         <v>245606</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>73</v>
+        <v>540</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>541</v>
@@ -7170,10 +7188,10 @@
         <v>542</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,13 +7206,13 @@
         <v>49543</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -7203,13 +7221,13 @@
         <v>54191</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -7218,10 +7236,10 @@
         <v>103734</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>551</v>
@@ -7298,7 +7316,7 @@
         <v>553</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -7307,13 +7325,13 @@
         <v>41255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -7322,13 +7340,13 @@
         <v>95978</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>557</v>
+        <v>496</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>558</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>321</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,13 +7361,13 @@
         <v>569651</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H25" s="7">
         <v>509</v>
@@ -7358,13 +7376,13 @@
         <v>546783</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M25" s="7">
         <v>1080</v>
@@ -7373,13 +7391,13 @@
         <v>1116434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,13 +7412,13 @@
         <v>247999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H26" s="7">
         <v>299</v>
@@ -7409,13 +7427,13 @@
         <v>329795</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M26" s="7">
         <v>544</v>
@@ -7424,13 +7442,13 @@
         <v>577794</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,13 +7463,13 @@
         <v>57162</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H27" s="7">
         <v>102</v>
@@ -7460,13 +7478,13 @@
         <v>112912</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M27" s="7">
         <v>156</v>
@@ -7475,13 +7493,13 @@
         <v>170073</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>581</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,7 +7570,7 @@
         <v>582</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>583</v>
@@ -7564,13 +7582,13 @@
         <v>132958</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>365</v>
+        <v>584</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>294</v>
+        <v>585</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>54</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>261</v>
@@ -7579,13 +7597,13 @@
         <v>275584</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,13 +7618,13 @@
         <v>2125928</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>587</v>
+        <v>305</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H30" s="7">
         <v>1905</v>
@@ -7615,13 +7633,13 @@
         <v>2002152</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M30" s="7">
         <v>3942</v>
@@ -7630,13 +7648,13 @@
         <v>4128079</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>593</v>
+        <v>438</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,13 +7669,13 @@
         <v>882046</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>596</v>
+        <v>381</v>
       </c>
       <c r="H31" s="7">
         <v>986</v>
@@ -7666,7 +7684,7 @@
         <v>1057103</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>597</v>
@@ -7687,7 +7705,7 @@
         <v>600</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>601</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,13 +7720,13 @@
         <v>211105</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H32" s="7">
         <v>279</v>
@@ -7717,13 +7735,13 @@
         <v>306863</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="M32" s="7">
         <v>472</v>
@@ -7732,13 +7750,13 @@
         <v>517968</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,7 +7798,7 @@
         <v>6495</v>
       </c>
       <c r="N33" s="7">
-        <v>6860781</v>
+        <v>6860780</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -7794,7 +7812,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7815,7 +7833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC3573A-F49F-4EB5-A94B-3A6F2B08C59F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB5B3E4-6F83-4B4C-B7B2-5D03BD734345}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7832,7 +7850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7939,7 +7957,7 @@
         <v>12026</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>609</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>610</v>
@@ -7954,13 +7972,13 @@
         <v>8772</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -7969,13 +7987,13 @@
         <v>20799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +8008,13 @@
         <v>49719</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -8005,13 +8023,13 @@
         <v>55207</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M5" s="7">
         <v>159</v>
@@ -8020,13 +8038,13 @@
         <v>104926</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +8059,13 @@
         <v>28704</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -8056,13 +8074,13 @@
         <v>50571</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M6" s="7">
         <v>138</v>
@@ -8071,13 +8089,13 @@
         <v>79274</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8092,13 +8110,13 @@
         <v>11533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -8107,13 +8125,13 @@
         <v>15826</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>638</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -8122,13 +8140,13 @@
         <v>27359</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,13 +8214,13 @@
         <v>21080</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H9" s="7">
         <v>39</v>
@@ -8211,13 +8229,13 @@
         <v>26538</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -8226,13 +8244,13 @@
         <v>47618</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,13 +8265,13 @@
         <v>288350</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>652</v>
+        <v>561</v>
       </c>
       <c r="H10" s="7">
         <v>529</v>
@@ -8262,13 +8280,13 @@
         <v>329426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>653</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="M10" s="7">
         <v>856</v>
@@ -8277,13 +8295,13 @@
         <v>617776</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,13 +8316,13 @@
         <v>203236</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>660</v>
       </c>
       <c r="H11" s="7">
         <v>349</v>
@@ -8313,13 +8331,13 @@
         <v>192008</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>661</v>
+        <v>511</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M11" s="7">
         <v>571</v>
@@ -8328,13 +8346,13 @@
         <v>395244</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8349,13 +8367,13 @@
         <v>37157</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>667</v>
+        <v>496</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H12" s="7">
         <v>76</v>
@@ -8364,13 +8382,13 @@
         <v>43168</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>117</v>
+        <v>667</v>
       </c>
       <c r="M12" s="7">
         <v>121</v>
@@ -8379,13 +8397,13 @@
         <v>80325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>673</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8441,7 +8459,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8453,13 +8471,13 @@
         <v>56523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>490</v>
+        <v>672</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -8468,13 +8486,13 @@
         <v>82234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>430</v>
+        <v>675</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -8483,10 +8501,10 @@
         <v>138757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>676</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>649</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>677</v>
@@ -8522,10 +8540,10 @@
         <v>681</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="M15" s="7">
         <v>1430</v>
@@ -8534,13 +8552,13 @@
         <v>1197678</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8555,13 +8573,13 @@
         <v>341020</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>689</v>
       </c>
       <c r="H16" s="7">
         <v>469</v>
@@ -8573,10 +8591,10 @@
         <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>690</v>
+        <v>611</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="M16" s="7">
         <v>754</v>
@@ -8585,13 +8603,13 @@
         <v>639093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>596</v>
+        <v>690</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8606,13 +8624,13 @@
         <v>58835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>692</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>694</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -8621,13 +8639,13 @@
         <v>61450</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="M17" s="7">
         <v>160</v>
@@ -8636,13 +8654,13 @@
         <v>120285</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>698</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,7 +8716,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8710,13 +8728,13 @@
         <v>53535</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>700</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -8725,13 +8743,13 @@
         <v>43745</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>583</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>700</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -8740,13 +8758,13 @@
         <v>97281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>706</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8761,13 +8779,13 @@
         <v>394977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="H20" s="7">
         <v>557</v>
@@ -8776,13 +8794,13 @@
         <v>543849</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="M20" s="7">
         <v>911</v>
@@ -8791,13 +8809,13 @@
         <v>938826</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>713</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8812,13 +8830,13 @@
         <v>236889</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H21" s="7">
         <v>346</v>
@@ -8827,13 +8845,13 @@
         <v>232597</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>512</v>
+        <v>714</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="M21" s="7">
         <v>582</v>
@@ -8842,13 +8860,13 @@
         <v>469486</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8863,13 +8881,13 @@
         <v>42429</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>13</v>
+        <v>669</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>187</v>
+        <v>720</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -8878,13 +8896,13 @@
         <v>52204</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>645</v>
+        <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -8893,13 +8911,13 @@
         <v>94633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>727</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8967,13 +8985,13 @@
         <v>36523</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>432</v>
+        <v>726</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>730</v>
+        <v>456</v>
       </c>
       <c r="H24" s="7">
         <v>57</v>
@@ -8982,13 +9000,13 @@
         <v>54238</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>731</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>90</v>
+        <v>727</v>
       </c>
       <c r="M24" s="7">
         <v>91</v>
@@ -8997,13 +9015,13 @@
         <v>90761</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9018,13 +9036,13 @@
         <v>550625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H25" s="7">
         <v>828</v>
@@ -9033,13 +9051,13 @@
         <v>643979</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>738</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>1382</v>
@@ -9048,13 +9066,13 @@
         <v>1194604</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9069,13 +9087,13 @@
         <v>291749</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>739</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H26" s="7">
         <v>516</v>
@@ -9084,13 +9102,13 @@
         <v>344969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>630</v>
+        <v>743</v>
       </c>
       <c r="M26" s="7">
         <v>839</v>
@@ -9099,13 +9117,13 @@
         <v>636718</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>746</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9120,13 +9138,13 @@
         <v>85355</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>750</v>
+        <v>417</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H27" s="7">
         <v>160</v>
@@ -9135,13 +9153,13 @@
         <v>106814</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>604</v>
+        <v>750</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M27" s="7">
         <v>254</v>
@@ -9150,13 +9168,13 @@
         <v>192169</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9224,13 +9242,13 @@
         <v>179687</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>553</v>
+        <v>703</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>488</v>
+        <v>755</v>
       </c>
       <c r="H29" s="7">
         <v>254</v>
@@ -9239,13 +9257,13 @@
         <v>215528</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>692</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>757</v>
+        <v>523</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M29" s="7">
         <v>401</v>
@@ -9254,13 +9272,13 @@
         <v>395215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>418</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9275,13 +9293,13 @@
         <v>1865551</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>761</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>762</v>
       </c>
       <c r="H30" s="7">
         <v>2870</v>
@@ -9290,10 +9308,10 @@
         <v>2188260</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>764</v>
@@ -9308,10 +9326,10 @@
         <v>765</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>566</v>
+        <v>766</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9326,13 +9344,13 @@
         <v>1101598</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H31" s="7">
         <v>1782</v>
@@ -9341,13 +9359,13 @@
         <v>1118217</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M31" s="7">
         <v>2884</v>
@@ -9356,13 +9374,13 @@
         <v>2219815</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>775</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9377,13 +9395,13 @@
         <v>235309</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>777</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>263</v>
+        <v>778</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="H32" s="7">
         <v>447</v>
@@ -9392,13 +9410,13 @@
         <v>279462</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="M32" s="7">
         <v>703</v>
@@ -9407,13 +9425,13 @@
         <v>514770</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>521</v>
+        <v>784</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9469,7 +9487,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
